--- a/Excel-XLSX/UN-SLE.xlsx
+++ b/Excel-XLSX/UN-SLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,661 @@
     <t>1</t>
   </si>
   <si>
-    <t>2vlVU7</t>
+    <t>azE0q7</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>EGU</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>125830</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>28020</t>
+  </si>
+  <si>
+    <t>97800</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>5850</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>16264</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>15861</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>4667</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>13521</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>9862</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>6566</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>6543</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>10498</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>63491</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>61192</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>65433</t>
+  </si>
+  <si>
+    <t>14775</t>
+  </si>
+  <si>
+    <t>59952</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>27311</t>
+  </si>
+  <si>
+    <t>33095</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>8738</t>
+  </si>
+  <si>
+    <t>17340</t>
+  </si>
+  <si>
+    <t>7778</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>9037</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>8341</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>8046</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1988</t>
   </si>
   <si>
     <t>1969</t>
@@ -105,25 +759,163 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>532000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>782000</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>654600</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>670000</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t>1976</t>
@@ -138,799 +930,28 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>UNK</t>
   </si>
   <si>
     <t>1977</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>127</t>
   </si>
   <si>
     <t>1978</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>128</t>
   </si>
   <si>
     <t>1979</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>125830</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>28020</t>
-  </si>
-  <si>
-    <t>97800</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>5850</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>16264</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>532000</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>15861</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>782000</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CHD</t>
-  </si>
-  <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>4667</t>
-  </si>
-  <si>
-    <t>2564</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>654600</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>13521</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>670000</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>9862</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>6566</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>6543</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>10498</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>63491</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>61192</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>65433</t>
-  </si>
-  <si>
-    <t>14775</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>EGU</t>
-  </si>
-  <si>
-    <t>GNQ</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>59952</t>
-  </si>
-  <si>
-    <t>6202</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>27311</t>
-  </si>
-  <si>
-    <t>33095</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>8738</t>
-  </si>
-  <si>
-    <t>17340</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>7778</t>
-  </si>
-  <si>
-    <t>1137</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>9037</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>8341</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>8046</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>4163</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1336,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1455,8 +1476,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1476,16 +1497,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1500,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
@@ -1523,8 +1544,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1538,22 +1559,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1568,7 +1589,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
@@ -1591,8 +1612,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1606,41 +1627,41 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1659,8 +1680,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1674,23 +1695,23 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
@@ -1727,8 +1748,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1742,22 +1763,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1772,7 +1793,7 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>33</v>
@@ -1795,8 +1816,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1810,22 +1831,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1840,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
@@ -1863,8 +1884,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1878,22 +1899,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1908,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
@@ -1931,8 +1952,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1946,22 +1967,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1976,7 +1997,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
@@ -1999,8 +2020,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -2014,22 +2035,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -2044,7 +2065,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
@@ -2067,8 +2088,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2082,22 +2103,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -2112,13 +2133,13 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>33</v>
@@ -2135,8 +2156,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2150,22 +2171,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -2180,10 +2201,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
@@ -2203,8 +2224,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2218,22 +2239,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -2248,10 +2269,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>33</v>
@@ -2271,8 +2292,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2286,22 +2307,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -2316,13 +2337,13 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>33</v>
@@ -2339,8 +2360,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2354,22 +2375,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -2384,10 +2405,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>33</v>
@@ -2407,8 +2428,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2422,22 +2443,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2452,13 +2473,13 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>33</v>
@@ -2475,8 +2496,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2490,22 +2511,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2520,10 +2541,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>33</v>
@@ -2543,8 +2564,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2558,22 +2579,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2588,10 +2609,10 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>33</v>
@@ -2611,8 +2632,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2626,22 +2647,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2656,10 +2677,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>33</v>
@@ -2679,8 +2700,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2694,22 +2715,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2724,10 +2745,10 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>33</v>
@@ -2747,8 +2768,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2762,22 +2783,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2795,13 +2816,13 @@
         <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>33</v>
@@ -2815,8 +2836,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2830,22 +2851,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2860,13 +2881,13 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>33</v>
@@ -2883,8 +2904,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2898,22 +2919,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2928,16 +2949,16 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>33</v>
@@ -2951,8 +2972,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2966,22 +2987,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2996,13 +3017,13 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>33</v>
@@ -3019,8 +3040,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3034,22 +3055,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -3064,10 +3085,10 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>33</v>
@@ -3087,8 +3108,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -3102,22 +3123,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -3132,13 +3153,13 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>33</v>
@@ -3155,8 +3176,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3170,22 +3191,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -3200,16 +3221,16 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>33</v>
@@ -3223,8 +3244,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3238,22 +3259,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -3268,10 +3289,10 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>33</v>
@@ -3291,8 +3312,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+      <c r="V29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -3306,22 +3327,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -3336,10 +3357,10 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>33</v>
@@ -3359,8 +3380,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>33</v>
+      <c r="V30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3374,22 +3395,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -3404,7 +3425,7 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>33</v>
@@ -3427,8 +3448,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>33</v>
+      <c r="V31" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -3442,22 +3463,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3472,7 +3493,7 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>33</v>
@@ -3495,8 +3516,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>33</v>
+      <c r="V32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3510,22 +3531,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3540,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>33</v>
@@ -3549,7 +3570,7 @@
         <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>33</v>
@@ -3563,8 +3584,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>33</v>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3578,22 +3599,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3608,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>33</v>
@@ -3631,8 +3652,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>33</v>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3646,22 +3667,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3676,7 +3697,7 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>33</v>
@@ -3699,8 +3720,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>33</v>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3714,22 +3735,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3744,13 +3765,13 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>33</v>
@@ -3767,8 +3788,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+      <c r="V36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3782,22 +3803,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3812,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>33</v>
@@ -3835,8 +3856,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>33</v>
+      <c r="V37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3850,22 +3871,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3880,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>33</v>
@@ -3889,7 +3910,7 @@
         <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>33</v>
@@ -3903,8 +3924,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>33</v>
+      <c r="V38" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3918,22 +3939,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3948,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>33</v>
@@ -3966,7 +3987,7 @@
         <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>34</v>
@@ -3986,22 +4007,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -4016,13 +4037,13 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>33</v>
@@ -4034,7 +4055,7 @@
         <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>34</v>
@@ -4054,22 +4075,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -4084,7 +4105,7 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>33</v>
@@ -4093,7 +4114,7 @@
         <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>33</v>
@@ -4107,8 +4128,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>33</v>
+      <c r="V41" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -4122,22 +4143,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -4152,13 +4173,13 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>33</v>
@@ -4175,8 +4196,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>33</v>
+      <c r="V42" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -4190,22 +4211,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -4220,16 +4241,16 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>33</v>
@@ -4243,8 +4264,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>33</v>
+      <c r="V43" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -4258,22 +4279,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -4288,10 +4309,10 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>33</v>
@@ -4311,8 +4332,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>33</v>
+      <c r="V44" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -4326,22 +4347,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -4356,19 +4377,19 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>33</v>
@@ -4379,8 +4400,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>33</v>
+      <c r="V45" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4394,22 +4415,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -4424,13 +4445,13 @@
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>33</v>
@@ -4447,8 +4468,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
+      <c r="V46" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -4462,22 +4483,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4492,10 +4513,10 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>33</v>
@@ -4515,8 +4536,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>33</v>
+      <c r="V47" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4530,22 +4551,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4560,13 +4581,13 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>33</v>
@@ -4583,8 +4604,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>33</v>
+      <c r="V48" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -4598,22 +4619,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4628,13 +4649,13 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>33</v>
@@ -4651,8 +4672,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>33</v>
+      <c r="V49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -4666,22 +4687,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4696,13 +4717,13 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>33</v>
@@ -4719,8 +4740,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>33</v>
+      <c r="V50" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -4734,22 +4755,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4764,10 +4785,10 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>33</v>
@@ -4787,8 +4808,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>33</v>
+      <c r="V51" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -4802,22 +4823,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4832,13 +4853,13 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>33</v>
@@ -4855,8 +4876,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>33</v>
+      <c r="V52" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -4870,22 +4891,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4900,10 +4921,10 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>33</v>
@@ -4923,8 +4944,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>33</v>
+      <c r="V53" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4938,22 +4959,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4968,10 +4989,10 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>33</v>
@@ -4991,8 +5012,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>33</v>
+      <c r="V54" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -5006,44 +5027,44 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="P55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q55" s="2" t="s">
         <v>33</v>
       </c>
@@ -5059,8 +5080,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>33</v>
+      <c r="V55" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -5074,22 +5095,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -5104,13 +5125,13 @@
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>33</v>
@@ -5127,8 +5148,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>33</v>
+      <c r="V56" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -5142,22 +5163,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -5172,13 +5193,13 @@
         <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>33</v>
@@ -5195,8 +5216,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>33</v>
+      <c r="V57" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -5210,22 +5231,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -5240,13 +5261,13 @@
         <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>33</v>
@@ -5263,8 +5284,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>33</v>
+      <c r="V58" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -5278,22 +5299,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
@@ -5308,13 +5329,13 @@
         <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>33</v>
@@ -5331,8 +5352,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>33</v>
+      <c r="V59" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -5346,22 +5367,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>29</v>
@@ -5376,13 +5397,13 @@
         <v>31</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>33</v>
@@ -5399,8 +5420,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>33</v>
+      <c r="V60" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -5414,22 +5435,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>29</v>
@@ -5444,13 +5465,13 @@
         <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>33</v>
@@ -5467,8 +5488,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>33</v>
+      <c r="V61" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -5482,22 +5503,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>29</v>
@@ -5512,13 +5533,13 @@
         <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>33</v>
@@ -5535,8 +5556,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>33</v>
+      <c r="V62" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -5550,43 +5571,43 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>33</v>
@@ -5603,8 +5624,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>33</v>
+      <c r="V63" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -5618,22 +5639,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>29</v>
@@ -5648,13 +5669,13 @@
         <v>31</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>33</v>
@@ -5671,8 +5692,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>33</v>
+      <c r="V64" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -5686,22 +5707,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>29</v>
@@ -5716,13 +5737,13 @@
         <v>31</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>33</v>
@@ -5739,8 +5760,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>33</v>
+      <c r="V65" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -5754,22 +5775,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>29</v>
@@ -5784,10 +5805,10 @@
         <v>31</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>33</v>
@@ -5807,8 +5828,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>33</v>
+      <c r="V66" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -5822,22 +5843,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>29</v>
@@ -5852,7 +5873,7 @@
         <v>31</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>33</v>
@@ -5875,8 +5896,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>33</v>
+      <c r="V67" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -5890,22 +5911,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>29</v>
@@ -5920,7 +5941,7 @@
         <v>31</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>33</v>
@@ -5943,8 +5964,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>33</v>
+      <c r="V68" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -5958,22 +5979,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>29</v>
@@ -5988,10 +6009,10 @@
         <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>33</v>
@@ -6011,8 +6032,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>33</v>
+      <c r="V69" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -6026,22 +6047,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>29</v>
@@ -6056,13 +6077,13 @@
         <v>31</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>33</v>
@@ -6079,8 +6100,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>33</v>
+      <c r="V70" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -6094,22 +6115,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>29</v>
@@ -6124,13 +6145,13 @@
         <v>31</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>33</v>
@@ -6147,8 +6168,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>33</v>
+      <c r="V71" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -6162,22 +6183,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>29</v>
@@ -6192,10 +6213,10 @@
         <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>33</v>
@@ -6215,8 +6236,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>33</v>
+      <c r="V72" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -6230,22 +6251,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>29</v>
@@ -6263,7 +6284,7 @@
         <v>33</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>33</v>
@@ -6278,7 +6299,7 @@
         <v>33</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>34</v>
@@ -6298,55 +6319,55 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T74" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>34</v>
@@ -6366,22 +6387,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>29</v>
@@ -6396,10 +6417,10 @@
         <v>31</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>33</v>
@@ -6419,8 +6440,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>33</v>
+      <c r="V75" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -6434,10 +6455,10 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>211</v>
@@ -6449,7 +6470,7 @@
         <v>213</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>29</v>
@@ -6467,7 +6488,7 @@
         <v>33</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>33</v>
@@ -6487,8 +6508,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>33</v>
+      <c r="V76" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -6502,22 +6523,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>29</v>
@@ -6532,10 +6553,10 @@
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>33</v>
@@ -6555,8 +6576,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>33</v>
+      <c r="V77" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -6570,22 +6591,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>29</v>
@@ -6600,13 +6621,13 @@
         <v>31</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>33</v>
@@ -6623,8 +6644,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>33</v>
+      <c r="V78" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -6638,22 +6659,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>29</v>
@@ -6671,7 +6692,7 @@
         <v>33</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>33</v>
@@ -6691,8 +6712,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>33</v>
+      <c r="V79" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -6706,22 +6727,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -6739,7 +6760,7 @@
         <v>33</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>33</v>
@@ -6759,8 +6780,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>33</v>
+      <c r="V80" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -6774,22 +6795,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>29</v>
@@ -6807,7 +6828,7 @@
         <v>33</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>33</v>
@@ -6827,8 +6848,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>33</v>
+      <c r="V81" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -6842,22 +6863,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>29</v>
@@ -6872,10 +6893,10 @@
         <v>31</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>33</v>
@@ -6895,8 +6916,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>33</v>
+      <c r="V82" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -6910,22 +6931,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>29</v>
@@ -6940,10 +6961,10 @@
         <v>31</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>33</v>
@@ -6963,8 +6984,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>33</v>
+      <c r="V83" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -6978,22 +6999,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>29</v>
@@ -7008,13 +7029,13 @@
         <v>31</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>33</v>
@@ -7031,8 +7052,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>33</v>
+      <c r="V84" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -7046,22 +7067,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>29</v>
@@ -7076,10 +7097,10 @@
         <v>31</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>33</v>
@@ -7099,8 +7120,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>33</v>
+      <c r="V85" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -7114,22 +7135,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>29</v>
@@ -7144,10 +7165,10 @@
         <v>31</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>33</v>
@@ -7167,8 +7188,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>33</v>
+      <c r="V86" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -7182,22 +7203,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>29</v>
@@ -7212,10 +7233,10 @@
         <v>31</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>33</v>
@@ -7235,8 +7256,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>33</v>
+      <c r="V87" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -7250,22 +7271,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7280,7 +7301,7 @@
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>33</v>
@@ -7303,8 +7324,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>33</v>
+      <c r="V88" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -7318,22 +7339,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7348,13 +7369,13 @@
         <v>31</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>33</v>
@@ -7371,8 +7392,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>33</v>
+      <c r="V89" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -7386,22 +7407,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7416,13 +7437,13 @@
         <v>31</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>33</v>
@@ -7439,8 +7460,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>33</v>
+      <c r="V90" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -7454,22 +7475,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -7484,10 +7505,10 @@
         <v>31</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>33</v>
@@ -7507,8 +7528,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>33</v>
+      <c r="V91" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -7525,19 +7546,19 @@
         <v>247</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -7552,10 +7573,10 @@
         <v>31</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>33</v>
@@ -7575,8 +7596,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>33</v>
+      <c r="V92" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -7593,19 +7614,19 @@
         <v>248</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -7620,10 +7641,10 @@
         <v>31</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>33</v>
@@ -7643,8 +7664,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>33</v>
+      <c r="V93" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -7658,22 +7679,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -7688,10 +7709,10 @@
         <v>31</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>33</v>
@@ -7711,8 +7732,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>33</v>
+      <c r="V94" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -7726,22 +7747,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -7756,13 +7777,13 @@
         <v>31</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>33</v>
@@ -7779,8 +7800,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>33</v>
+      <c r="V95" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -7794,22 +7815,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>29</v>
@@ -7827,7 +7848,7 @@
         <v>33</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>33</v>
@@ -7847,8 +7868,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>33</v>
+      <c r="V96" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -7862,22 +7883,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -7892,10 +7913,10 @@
         <v>31</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>33</v>
@@ -7915,8 +7936,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>33</v>
+      <c r="V97" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -7930,22 +7951,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -7963,7 +7984,7 @@
         <v>33</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>33</v>
@@ -7983,8 +8004,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>33</v>
+      <c r="V98" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -7998,23 +8019,23 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
       </c>
@@ -8028,10 +8049,10 @@
         <v>31</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>33</v>
@@ -8051,8 +8072,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>33</v>
+      <c r="V99" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -8069,19 +8090,19 @@
         <v>262</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -8096,16 +8117,16 @@
         <v>31</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="R100" s="2" t="s">
         <v>33</v>
@@ -8119,8 +8140,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>33</v>
+      <c r="V100" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -8134,22 +8155,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>29</v>
@@ -8164,16 +8185,16 @@
         <v>31</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>33</v>
@@ -8187,8 +8208,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>33</v>
+      <c r="V101" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -8202,22 +8223,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8235,13 +8256,13 @@
         <v>33</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="R102" s="2" t="s">
         <v>33</v>
@@ -8255,8 +8276,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>33</v>
+      <c r="V102" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -8270,22 +8291,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8300,16 +8321,16 @@
         <v>31</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="R103" s="2" t="s">
         <v>33</v>
@@ -8323,8 +8344,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>33</v>
+      <c r="V103" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -8338,22 +8359,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8368,7 +8389,7 @@
         <v>31</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>33</v>
@@ -8377,7 +8398,7 @@
         <v>33</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="R104" s="2" t="s">
         <v>33</v>
@@ -8391,8 +8412,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>33</v>
+      <c r="V104" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -8406,22 +8427,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>29</v>
@@ -8436,17 +8457,17 @@
         <v>31</v>
       </c>
       <c r="N105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R105" s="2" t="s">
         <v>33</v>
       </c>
@@ -8459,8 +8480,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>33</v>
+      <c r="V105" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -8474,22 +8495,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -8507,13 +8528,13 @@
         <v>33</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="R106" s="2" t="s">
         <v>33</v>
@@ -8527,8 +8548,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>33</v>
+      <c r="V106" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -8542,22 +8563,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>29</v>
@@ -8572,19 +8593,19 @@
         <v>31</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>33</v>
@@ -8595,8 +8616,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="2" t="s">
-        <v>33</v>
+      <c r="V107" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -8610,22 +8631,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>29</v>
@@ -8640,7 +8661,7 @@
         <v>31</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>33</v>
@@ -8663,8 +8684,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>33</v>
+      <c r="V108" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -8678,22 +8699,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>29</v>
@@ -8708,7 +8729,7 @@
         <v>31</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>33</v>
@@ -8731,8 +8752,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>33</v>
+      <c r="V109" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -8746,22 +8767,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>29</v>
@@ -8776,10 +8797,10 @@
         <v>31</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>33</v>
@@ -8799,8 +8820,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="2" t="s">
-        <v>33</v>
+      <c r="V110" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -8814,22 +8835,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>29</v>
@@ -8844,10 +8865,10 @@
         <v>31</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>33</v>
@@ -8867,8 +8888,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="2" t="s">
-        <v>33</v>
+      <c r="V111" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
@@ -8882,22 +8903,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="G112" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>29</v>
@@ -8912,7 +8933,7 @@
         <v>31</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>33</v>
@@ -8935,8 +8956,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="2" t="s">
-        <v>33</v>
+      <c r="V112" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -8950,22 +8971,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I113" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>29</v>
@@ -8980,7 +9001,7 @@
         <v>31</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>33</v>
@@ -9003,8 +9024,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="2" t="s">
-        <v>33</v>
+      <c r="V113" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -9018,22 +9039,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
@@ -9051,7 +9072,7 @@
         <v>33</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>33</v>
@@ -9071,8 +9092,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="2" t="s">
-        <v>33</v>
+      <c r="V114" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -9086,22 +9107,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>29</v>
@@ -9116,10 +9137,10 @@
         <v>31</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>33</v>
@@ -9139,8 +9160,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="2" t="s">
-        <v>33</v>
+      <c r="V115" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -9154,22 +9175,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>29</v>
@@ -9184,10 +9205,10 @@
         <v>31</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>33</v>
@@ -9207,8 +9228,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="2" t="s">
-        <v>33</v>
+      <c r="V116" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -9222,22 +9243,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>29</v>
@@ -9252,10 +9273,10 @@
         <v>31</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>33</v>
@@ -9275,8 +9296,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="2" t="s">
-        <v>33</v>
+      <c r="V117" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -9290,22 +9311,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>29</v>
@@ -9320,10 +9341,10 @@
         <v>31</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>33</v>
@@ -9343,8 +9364,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="2" t="s">
-        <v>33</v>
+      <c r="V118" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -9358,22 +9379,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>29</v>
@@ -9388,10 +9409,10 @@
         <v>31</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>33</v>
@@ -9411,8 +9432,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="2" t="s">
-        <v>33</v>
+      <c r="V119" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -9426,22 +9447,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>29</v>
@@ -9456,10 +9477,10 @@
         <v>31</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>33</v>
@@ -9479,8 +9500,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="2" t="s">
-        <v>33</v>
+      <c r="V120" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121">
@@ -9494,22 +9515,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>29</v>
@@ -9524,10 +9545,10 @@
         <v>31</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>33</v>
@@ -9547,8 +9568,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="2" t="s">
-        <v>33</v>
+      <c r="V121" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -9565,19 +9586,19 @@
         <v>292</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>29</v>
@@ -9592,7 +9613,7 @@
         <v>31</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>33</v>
@@ -9615,8 +9636,8 @@
       <c r="U122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V122" s="2" t="s">
-        <v>33</v>
+      <c r="V122" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -9630,22 +9651,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>29</v>
@@ -9660,7 +9681,7 @@
         <v>31</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>33</v>
@@ -9683,8 +9704,8 @@
       <c r="U123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>33</v>
+      <c r="V123" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="124">
@@ -9698,22 +9719,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>29</v>
@@ -9728,7 +9749,7 @@
         <v>31</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>33</v>
@@ -9751,8 +9772,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="2" t="s">
-        <v>33</v>
+      <c r="V124" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -9766,22 +9787,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I125" s="1" t="s">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>29</v>
@@ -9796,7 +9817,7 @@
         <v>31</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>33</v>
@@ -9819,8 +9840,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="2" t="s">
-        <v>33</v>
+      <c r="V125" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126">
@@ -9834,22 +9855,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G126" s="1" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>29</v>
@@ -9864,7 +9885,7 @@
         <v>31</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>33</v>
@@ -9887,8 +9908,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="2" t="s">
-        <v>33</v>
+      <c r="V126" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -9902,22 +9923,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G127" s="1" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>29</v>
@@ -9932,7 +9953,7 @@
         <v>31</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>33</v>
@@ -9955,8 +9976,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="2" t="s">
-        <v>33</v>
+      <c r="V127" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -9970,23 +9991,23 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="I128" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="J128" s="2" t="s">
         <v>29</v>
       </c>
@@ -10000,7 +10021,7 @@
         <v>31</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>33</v>
@@ -10023,8 +10044,212 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="2" t="s">
-        <v>33</v>
+      <c r="V128" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SLE.xlsx
+++ b/Excel-XLSX/UN-SLE.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>azE0q7</t>
+    <t>kUMV1t</t>
   </si>
   <si>
     <t>1995</t>
@@ -1476,8 +1476,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1544,8 +1544,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1612,8 +1612,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1680,8 +1680,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1748,8 +1748,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1816,8 +1816,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1884,8 +1884,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1952,8 +1952,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -2020,8 +2020,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -2088,8 +2088,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2156,8 +2156,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2224,8 +2224,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2292,8 +2292,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2360,8 +2360,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2428,8 +2428,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2496,8 +2496,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2564,8 +2564,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2632,8 +2632,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2700,8 +2700,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2768,8 +2768,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2836,8 +2836,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2904,8 +2904,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2972,8 +2972,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -3040,8 +3040,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -3108,8 +3108,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3176,8 +3176,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3244,8 +3244,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3312,8 +3312,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3380,8 +3380,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3448,8 +3448,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3516,8 +3516,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3584,8 +3584,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3652,8 +3652,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3720,8 +3720,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3788,8 +3788,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3856,8 +3856,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3924,8 +3924,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -4128,8 +4128,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -4196,8 +4196,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4264,8 +4264,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4332,8 +4332,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4400,8 +4400,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4468,8 +4468,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4536,8 +4536,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4604,8 +4604,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4672,8 +4672,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4740,8 +4740,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4808,8 +4808,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4876,8 +4876,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4944,8 +4944,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -5012,8 +5012,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5080,8 +5080,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -5148,8 +5148,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5216,8 +5216,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5284,8 +5284,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5352,8 +5352,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5420,8 +5420,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5488,8 +5488,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5556,8 +5556,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5624,8 +5624,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5692,8 +5692,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5760,8 +5760,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5828,8 +5828,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5896,8 +5896,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5964,8 +5964,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -6032,8 +6032,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -6100,8 +6100,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -6168,8 +6168,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6236,8 +6236,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6440,8 +6440,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6508,8 +6508,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6576,8 +6576,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6644,8 +6644,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6712,8 +6712,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6780,8 +6780,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6848,8 +6848,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6916,8 +6916,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6984,8 +6984,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -7052,8 +7052,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -7120,8 +7120,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -7188,8 +7188,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7256,8 +7256,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7324,8 +7324,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7392,8 +7392,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7460,8 +7460,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>34</v>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7528,8 +7528,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>34</v>
+      <c r="V91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7596,8 +7596,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7664,8 +7664,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7732,8 +7732,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7800,8 +7800,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7868,8 +7868,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7936,8 +7936,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -8004,8 +8004,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -8072,8 +8072,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -8140,8 +8140,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>34</v>
+      <c r="V100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -8208,8 +8208,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>34</v>
+      <c r="V101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8276,8 +8276,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8344,8 +8344,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8412,8 +8412,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8480,8 +8480,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8548,8 +8548,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8616,8 +8616,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8684,8 +8684,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8752,8 +8752,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8820,8 +8820,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -8888,8 +8888,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -8956,8 +8956,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -9024,8 +9024,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -9092,8 +9092,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -9160,8 +9160,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9228,8 +9228,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9296,8 +9296,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9364,8 +9364,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -9432,8 +9432,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -9500,8 +9500,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -9568,8 +9568,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -9636,8 +9636,8 @@
       <c r="U122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>34</v>
+      <c r="V122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -9704,8 +9704,8 @@
       <c r="U123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>34</v>
+      <c r="V123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -9772,8 +9772,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -9840,8 +9840,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -9908,8 +9908,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -9976,8 +9976,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -10044,8 +10044,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -10112,8 +10112,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -10180,8 +10180,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -10248,8 +10248,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SLE.xlsx
+++ b/Excel-XLSX/UN-SLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,273 @@
     <t>kUMV1t</t>
   </si>
   <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>125830</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>28020</t>
+  </si>
+  <si>
+    <t>97800</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>5850</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>16264</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>532000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>15861</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>782000</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
@@ -105,52 +372,208 @@
     <t>TCD</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4667</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>654600</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>3</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13521</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>4</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>670000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>9862</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>6566</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>6543</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>10498</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>63491</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>61192</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>65433</t>
+  </si>
+  <si>
+    <t>14775</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Dem. Rep. of the Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>8</t>
+    <t>53</t>
   </si>
   <si>
     <t>55</t>
@@ -165,48 +588,189 @@
     <t>GNQ</t>
   </si>
   <si>
-    <t>6</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59952</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>7</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>27311</t>
+  </si>
+  <si>
+    <t>33095</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>8738</t>
+  </si>
+  <si>
+    <t>17340</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
-    <t>9</t>
+    <t>68</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>7778</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>10</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>9037</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>11</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>8341</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>12</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8046</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -216,742 +780,184 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>13</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>32</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>34</t>
+    <t>116</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>37</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>39</t>
+    <t>128</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>125830</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>28020</t>
-  </si>
-  <si>
-    <t>97800</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>5850</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>16264</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>15861</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>4667</t>
-  </si>
-  <si>
-    <t>2564</t>
-  </si>
-  <si>
-    <t>13521</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>9862</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>6566</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>6543</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>10498</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>63491</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>61192</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>65433</t>
-  </si>
-  <si>
-    <t>14775</t>
-  </si>
-  <si>
-    <t>59952</t>
-  </si>
-  <si>
-    <t>6202</t>
-  </si>
-  <si>
-    <t>27311</t>
-  </si>
-  <si>
-    <t>33095</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>8738</t>
-  </si>
-  <si>
-    <t>17340</t>
-  </si>
-  <si>
-    <t>7778</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1137</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>9037</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>8341</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>8046</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>4163</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>73</t>
+    <t>130</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>532000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>782000</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>654600</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>670000</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1342,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1497,16 +1503,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1521,7 +1527,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
@@ -1559,22 +1565,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1589,7 +1595,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
@@ -1627,23 +1633,23 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1657,10 +1663,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>33</v>
@@ -1695,23 +1701,23 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
@@ -1763,22 +1769,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1793,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>33</v>
@@ -1831,22 +1837,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1861,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
@@ -1899,22 +1905,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1929,7 +1935,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
@@ -1967,22 +1973,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1997,7 +2003,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
@@ -2035,22 +2041,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -2065,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
@@ -2103,22 +2109,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -2133,13 +2139,13 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>33</v>
@@ -2171,22 +2177,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -2201,10 +2207,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
@@ -2239,22 +2245,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -2269,10 +2275,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>33</v>
@@ -2307,22 +2313,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -2337,13 +2343,13 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>33</v>
@@ -2375,22 +2381,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -2405,10 +2411,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>33</v>
@@ -2443,10 +2449,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2458,7 +2464,7 @@
         <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2473,13 +2479,13 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>33</v>
@@ -2511,22 +2517,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2541,10 +2547,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>33</v>
@@ -2579,22 +2585,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2609,10 +2615,10 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>33</v>
@@ -2647,22 +2653,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2677,10 +2683,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>33</v>
@@ -2715,22 +2721,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2745,10 +2751,10 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>33</v>
@@ -2783,22 +2789,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2816,13 +2822,13 @@
         <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>33</v>
@@ -2851,22 +2857,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2881,13 +2887,13 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>33</v>
@@ -2919,22 +2925,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2949,16 +2955,16 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>33</v>
@@ -2987,22 +2993,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -3017,13 +3023,13 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>33</v>
@@ -3055,22 +3061,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -3085,10 +3091,10 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>33</v>
@@ -3123,22 +3129,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -3153,13 +3159,13 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>33</v>
@@ -3191,22 +3197,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -3221,16 +3227,16 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>33</v>
@@ -3259,22 +3265,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -3289,10 +3295,10 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>33</v>
@@ -3327,22 +3333,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -3357,10 +3363,10 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>33</v>
@@ -3395,22 +3401,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -3425,7 +3431,7 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>33</v>
@@ -3463,22 +3469,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3493,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>33</v>
@@ -3531,22 +3537,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3561,7 +3567,7 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>33</v>
@@ -3570,7 +3576,7 @@
         <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>33</v>
@@ -3599,22 +3605,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3629,7 +3635,7 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>33</v>
@@ -3667,22 +3673,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3697,7 +3703,7 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>33</v>
@@ -3735,22 +3741,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3765,13 +3771,13 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>33</v>
@@ -3803,22 +3809,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3833,7 +3839,7 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>33</v>
@@ -3871,22 +3877,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3901,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>33</v>
@@ -3910,7 +3916,7 @@
         <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>33</v>
@@ -3939,22 +3945,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3969,7 +3975,7 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>33</v>
@@ -3987,7 +3993,7 @@
         <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>34</v>
@@ -4007,22 +4013,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -4037,13 +4043,13 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>33</v>
@@ -4055,7 +4061,7 @@
         <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>34</v>
@@ -4075,22 +4081,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -4105,7 +4111,7 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>33</v>
@@ -4114,7 +4120,7 @@
         <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>33</v>
@@ -4143,22 +4149,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -4173,13 +4179,13 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>33</v>
@@ -4211,22 +4217,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -4241,16 +4247,16 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>33</v>
@@ -4279,22 +4285,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -4309,10 +4315,10 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>33</v>
@@ -4347,22 +4353,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -4377,19 +4383,19 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>33</v>
@@ -4415,22 +4421,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -4445,13 +4451,13 @@
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>33</v>
@@ -4483,22 +4489,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4513,10 +4519,10 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>33</v>
@@ -4551,22 +4557,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4581,13 +4587,13 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>33</v>
@@ -4619,22 +4625,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4649,13 +4655,13 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>33</v>
@@ -4687,22 +4693,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4717,13 +4723,13 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>33</v>
@@ -4755,22 +4761,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4785,10 +4791,10 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>33</v>
@@ -4823,22 +4829,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4853,13 +4859,13 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>33</v>
@@ -4891,22 +4897,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4921,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>33</v>
@@ -4959,22 +4965,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4989,10 +4995,10 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>33</v>
@@ -5027,22 +5033,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
@@ -5057,13 +5063,13 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>33</v>
@@ -5095,22 +5101,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -5125,13 +5131,13 @@
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>33</v>
@@ -5163,23 +5169,23 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
       </c>
@@ -5193,13 +5199,13 @@
         <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>33</v>
@@ -5231,22 +5237,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -5261,13 +5267,13 @@
         <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>33</v>
@@ -5299,22 +5305,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
@@ -5329,13 +5335,13 @@
         <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>33</v>
@@ -5367,22 +5373,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>29</v>
@@ -5397,13 +5403,13 @@
         <v>31</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>33</v>
@@ -5435,22 +5441,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>29</v>
@@ -5465,13 +5471,13 @@
         <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>33</v>
@@ -5503,23 +5509,23 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J62" s="2" t="s">
         <v>29</v>
       </c>
@@ -5533,13 +5539,13 @@
         <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>33</v>
@@ -5571,22 +5577,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>29</v>
@@ -5601,13 +5607,13 @@
         <v>31</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>33</v>
@@ -5639,22 +5645,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>29</v>
@@ -5669,13 +5675,13 @@
         <v>31</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>33</v>
@@ -5707,22 +5713,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>29</v>
@@ -5737,13 +5743,13 @@
         <v>31</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>33</v>
@@ -5775,22 +5781,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>29</v>
@@ -5805,10 +5811,10 @@
         <v>31</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>33</v>
@@ -5843,23 +5849,23 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J67" s="2" t="s">
         <v>29</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>31</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>33</v>
@@ -5911,22 +5917,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>29</v>
@@ -5941,7 +5947,7 @@
         <v>31</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>33</v>
@@ -5979,22 +5985,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>29</v>
@@ -6009,10 +6015,10 @@
         <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>33</v>
@@ -6047,22 +6053,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>29</v>
@@ -6077,13 +6083,13 @@
         <v>31</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>33</v>
@@ -6115,22 +6121,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>29</v>
@@ -6145,13 +6151,13 @@
         <v>31</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>33</v>
@@ -6183,22 +6189,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>29</v>
@@ -6213,10 +6219,10 @@
         <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>33</v>
@@ -6251,22 +6257,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>29</v>
@@ -6284,7 +6290,7 @@
         <v>33</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>33</v>
@@ -6299,7 +6305,7 @@
         <v>33</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>34</v>
@@ -6319,23 +6325,23 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J74" s="2" t="s">
         <v>29</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>33</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>33</v>
@@ -6367,7 +6373,7 @@
         <v>33</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>34</v>
@@ -6387,22 +6393,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>29</v>
@@ -6417,10 +6423,10 @@
         <v>31</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>33</v>
@@ -6455,22 +6461,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>29</v>
@@ -6488,7 +6494,7 @@
         <v>33</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>33</v>
@@ -6523,22 +6529,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>29</v>
@@ -6553,10 +6559,10 @@
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>33</v>
@@ -6591,22 +6597,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>29</v>
@@ -6621,13 +6627,13 @@
         <v>31</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>33</v>
@@ -6659,22 +6665,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>29</v>
@@ -6692,7 +6698,7 @@
         <v>33</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>33</v>
@@ -6727,22 +6733,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -6760,7 +6766,7 @@
         <v>33</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>33</v>
@@ -6795,22 +6801,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>29</v>
@@ -6828,7 +6834,7 @@
         <v>33</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>33</v>
@@ -6863,22 +6869,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>29</v>
@@ -6893,10 +6899,10 @@
         <v>31</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>33</v>
@@ -6931,22 +6937,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>29</v>
@@ -6961,10 +6967,10 @@
         <v>31</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>33</v>
@@ -6999,22 +7005,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>29</v>
@@ -7029,13 +7035,13 @@
         <v>31</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>33</v>
@@ -7067,22 +7073,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>29</v>
@@ -7097,10 +7103,10 @@
         <v>31</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>33</v>
@@ -7135,22 +7141,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>29</v>
@@ -7165,10 +7171,10 @@
         <v>31</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>33</v>
@@ -7203,22 +7209,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>29</v>
@@ -7233,10 +7239,10 @@
         <v>31</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>33</v>
@@ -7271,22 +7277,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7301,7 +7307,7 @@
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>33</v>
@@ -7339,22 +7345,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7369,13 +7375,13 @@
         <v>31</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>33</v>
@@ -7407,22 +7413,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7437,13 +7443,13 @@
         <v>31</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>33</v>
@@ -7475,22 +7481,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -7505,10 +7511,10 @@
         <v>31</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>33</v>
@@ -7543,22 +7549,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -7573,10 +7579,10 @@
         <v>31</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>33</v>
@@ -7611,22 +7617,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -7641,10 +7647,10 @@
         <v>31</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>33</v>
@@ -7679,22 +7685,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -7709,10 +7715,10 @@
         <v>31</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>33</v>
@@ -7747,22 +7753,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -7777,13 +7783,13 @@
         <v>31</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>33</v>
@@ -7815,22 +7821,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>29</v>
@@ -7848,7 +7854,7 @@
         <v>33</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>33</v>
@@ -7883,22 +7889,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -7913,10 +7919,10 @@
         <v>31</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>33</v>
@@ -7951,22 +7957,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -7984,7 +7990,7 @@
         <v>33</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>33</v>
@@ -8019,22 +8025,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
@@ -8049,10 +8055,10 @@
         <v>31</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>33</v>
@@ -8087,22 +8093,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -8117,16 +8123,16 @@
         <v>31</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="R100" s="2" t="s">
         <v>33</v>
@@ -8158,19 +8164,19 @@
         <v>264</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>29</v>
@@ -8185,16 +8191,16 @@
         <v>31</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>33</v>
@@ -8226,19 +8232,19 @@
         <v>266</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8256,13 +8262,13 @@
         <v>33</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="R102" s="2" t="s">
         <v>33</v>
@@ -8291,22 +8297,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8321,16 +8327,16 @@
         <v>31</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="R103" s="2" t="s">
         <v>33</v>
@@ -8359,22 +8365,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8389,7 +8395,7 @@
         <v>31</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>33</v>
@@ -8398,7 +8404,7 @@
         <v>33</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="R104" s="2" t="s">
         <v>33</v>
@@ -8427,38 +8433,38 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O105" s="2" t="s">
         <v>33</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>33</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="R105" s="2" t="s">
         <v>33</v>
@@ -8498,19 +8504,19 @@
         <v>272</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -8528,13 +8534,13 @@
         <v>33</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="R106" s="2" t="s">
         <v>33</v>
@@ -8563,22 +8569,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I107" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>29</v>
@@ -8593,19 +8599,19 @@
         <v>31</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>33</v>
@@ -8631,22 +8637,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>29</v>
@@ -8661,7 +8667,7 @@
         <v>31</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>33</v>
@@ -8699,22 +8705,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>29</v>
@@ -8729,7 +8735,7 @@
         <v>31</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>33</v>
@@ -8767,22 +8773,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>29</v>
@@ -8797,10 +8803,10 @@
         <v>31</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>33</v>
@@ -8835,22 +8841,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>29</v>
@@ -8865,10 +8871,10 @@
         <v>31</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>33</v>
@@ -8903,22 +8909,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>29</v>
@@ -8933,7 +8939,7 @@
         <v>31</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>33</v>
@@ -8971,22 +8977,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>29</v>
@@ -9001,7 +9007,7 @@
         <v>31</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>33</v>
@@ -9039,22 +9045,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
@@ -9072,7 +9078,7 @@
         <v>33</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>33</v>
@@ -9107,22 +9113,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>29</v>
@@ -9137,10 +9143,10 @@
         <v>31</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>33</v>
@@ -9175,22 +9181,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>29</v>
@@ -9205,10 +9211,10 @@
         <v>31</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>33</v>
@@ -9243,22 +9249,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>29</v>
@@ -9273,10 +9279,10 @@
         <v>31</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>33</v>
@@ -9311,22 +9317,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>29</v>
@@ -9341,10 +9347,10 @@
         <v>31</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>33</v>
@@ -9379,22 +9385,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>29</v>
@@ -9409,10 +9415,10 @@
         <v>31</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>33</v>
@@ -9450,19 +9456,19 @@
         <v>291</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>29</v>
@@ -9477,10 +9483,10 @@
         <v>31</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>33</v>
@@ -9515,22 +9521,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>29</v>
@@ -9545,10 +9551,10 @@
         <v>31</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>33</v>
@@ -9583,22 +9589,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>29</v>
@@ -9613,7 +9619,7 @@
         <v>31</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>33</v>
@@ -9651,22 +9657,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>29</v>
@@ -9681,7 +9687,7 @@
         <v>31</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>33</v>
@@ -9719,22 +9725,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>29</v>
@@ -9749,7 +9755,7 @@
         <v>31</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>33</v>
@@ -9787,22 +9793,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>29</v>
@@ -9817,7 +9823,7 @@
         <v>31</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>33</v>
@@ -9855,22 +9861,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>29</v>
@@ -9885,7 +9891,7 @@
         <v>31</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>33</v>
@@ -9923,37 +9929,37 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="H127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>33</v>
@@ -9991,22 +9997,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>29</v>
@@ -10021,7 +10027,7 @@
         <v>31</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>33</v>
@@ -10039,7 +10045,7 @@
         <v>33</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="U128" s="1" t="s">
         <v>34</v>
@@ -10059,22 +10065,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>29</v>
@@ -10089,7 +10095,7 @@
         <v>31</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>33</v>
@@ -10107,7 +10113,7 @@
         <v>33</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="U129" s="1" t="s">
         <v>34</v>
@@ -10127,22 +10133,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>29</v>
@@ -10157,7 +10163,7 @@
         <v>31</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>33</v>
@@ -10175,7 +10181,7 @@
         <v>33</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="U130" s="1" t="s">
         <v>34</v>
@@ -10195,60 +10201,196 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T131" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V131" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V132" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V133" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-SLE.xlsx
+++ b/Excel-XLSX/UN-SLE.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>kUMV1t</t>
+    <t>oXp2V3</t>
   </si>
   <si>
     <t>1969</t>
